--- a/src/attributions/attributions_ig_traj_385.xlsx
+++ b/src/attributions/attributions_ig_traj_385.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05896385142917685</v>
+        <v>0.06640343244795602</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09545763576039475</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03035858665743817</v>
+        <v>-0.01257964432246148</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.04990494305815667</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.06257531373650004</v>
+        <v>0.03830341883313045</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05922089607017498</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0231721859034472</v>
+        <v>-0.01650286903891266</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.065928255055654</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.523332958193146e-12</v>
+        <v>0.001573516277109002</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.009701920765888675</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.01459675993533571</v>
+        <v>-0.002015587609637734</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>7.811949659403387e-12</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,28 +2220,28 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.08034982603817342</v>
+        <v>0.02050396556100436</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08951181696424883</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.08185629739490044</v>
+        <v>0.02460696632682316</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0.001160349534855663</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.02657925018295993</v>
+        <v>0.00502764822836853</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.003980424592097629</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01054133429679163</v>
+        <v>-0.01505073456440856</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.009982853159866717</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1745913591567571</v>
+        <v>0.09494306734156993</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03907426255628189</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.001466552623642145</v>
+        <v>-0.02194100229830904</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.07151450415413295</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.01247375336094094</v>
+        <v>0.02302614988174101</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.06593597367066442</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.009117418202512762</v>
+        <v>-0.03050995835050394</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.0267557171108594</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04803051731078469</v>
+        <v>0.03340111151601596</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.04404155681034153</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01535111018156715</v>
+        <v>0.002339665312048937</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01229456737997412</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2361,22 +2361,22 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.005422337767174761</v>
+        <v>0.02733756610229154</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.05114251608179764</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.01474581996396121</v>
+        <v>-0.01532501730625895</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.005636724031036895</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
@@ -2385,22 +2385,22 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.05031145454065998</v>
+        <v>-0.01907238162639644</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03716420428756873</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01913655594554663</v>
+        <v>-0.002855371017928309</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03669319986416397</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,46 +2415,46 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.006605775716685166</v>
+        <v>0.008895935760031864</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.01878756402308962</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.08438358101562964</v>
+        <v>0.01387029168767822</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.005119347912551837</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.04970851962115413</v>
+        <v>-0.01248208896217103</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.03322137098448476</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01009944636519301</v>
+        <v>-0.005290374938253075</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.03471762615434021</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2466,22 +2466,22 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1659230539438497</v>
+        <v>-0.01806158215729974</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.03078318670056376</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.02290171937785419</v>
+        <v>0.004284727474792326</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.06679383417107165</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,49 +2493,49 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.03539126052125386</v>
+        <v>-0.01332241893667153</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02451962699974065</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07076743498904134</v>
+        <v>0.008178974591560648</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.008135768814951873</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.06554434017854145</v>
+        <v>0.006263522390325053</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.07476631276536334</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.02937065378417083</v>
+        <v>-0.002733166737924842</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.03260757491606914</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,28 +2544,28 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.04474674689431134</v>
+        <v>-0.001520608362326087</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.03653402738112038</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.07026178267389857</v>
+        <v>-0.001882327164548037</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.01106908609464759</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
@@ -2577,76 +2577,76 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0205028657663791</v>
+        <v>-0.002781959737533169</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.001959533035908683</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.05514550220834244</v>
+        <v>-0.005653640700573255</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.04100009974777741</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03903439886932102</v>
+        <v>-0.01389201424574105</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02306695067673901</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01846019168783445</v>
+        <v>-0.002543825406150348</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03211458770626416</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0172476868265521</v>
+        <v>-0.01460412466414747</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.02812208832431288</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.002199963833722662</v>
+        <v>-0.0125444051242157</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.004028716862525036</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2655,22 +2655,22 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.004333566992289052</v>
+        <v>0.0008665912614301275</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.08044348864991101</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01701032929875066</v>
+        <v>-0.002369674721800632</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.04796199676228999</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03249899711763087</v>
+        <v>-0.02368813344771124</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.07908754877510729</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.004324107580199152</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2711,46 +2711,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.4348069681604496</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1031915505969473</v>
+        <v>-0.3479293302459773</v>
       </c>
       <c r="E5" t="n">
-        <v>0.033439149811801</v>
+        <v>-0.1368152402271828</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1441853912233879</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.3096556191801359</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0388281777917994</v>
+        <v>-0.2135929579235178</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01788138025791262</v>
+        <v>-0.1271764884033612</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1287251994948187</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -2768,25 +2768,25 @@
         <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.02981144715668217</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0219272940207461</v>
+        <v>-0.02994497102361562</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.03541038609128768</v>
+        <v>-0.02383513413695195</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.03496908699350612</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.1204160705675469</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.03641084440585035</v>
+        <v>0.03810557063111539</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02748647471988751</v>
+        <v>0.01574444277761808</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2813,52 +2813,52 @@
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.004486549660823256</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.06389140682515156</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.03301269528831713</v>
+        <v>-0.07060104448202068</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.08728897420792886</v>
+        <v>-0.0698058421138464</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.02432348045838437</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.6613673141861733</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1819098306443572</v>
+        <v>-0.146588435113449</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1218969352413021</v>
+        <v>0.06494915318774551</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.2214468457034096</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.04200421523783415</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.002839161641697614</v>
+        <v>-0.123548681203094</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.05539469628489951</v>
+        <v>-0.1946169755889322</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.03561299078994053</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.0868697591488797</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.02638201910422487</v>
+        <v>0.09449183815513372</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.00590280088886538</v>
+        <v>0.086291238617712</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.08474653421617481</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.2285131738109596</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.07599051525017217</v>
+        <v>-0.01032710541596342</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.04931274074344721</v>
+        <v>-0.03951280846787161</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,88 +2948,88 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.0103780148039361</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1411593062804771</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.05350628123351474</v>
+        <v>0.07607357888017732</v>
       </c>
       <c r="CH5" t="n">
-        <v>-2.002532712655882e-05</v>
+        <v>-0.01549346470717592</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.04883071348159446</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.04113553971232026</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.02695750944350552</v>
+        <v>-0.1241886492339314</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.04777184488322844</v>
+        <v>-0.1349088417763822</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.06010338722663885</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.130189907019632</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.04527235866854699</v>
+        <v>0.1141962817239933</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.02361113196553354</v>
+        <v>0.01793276285131649</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0375073673944415</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
         <v>-0</v>
@@ -3038,43 +3038,43 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.00553597710920817</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.005579320266858315</v>
+        <v>0.1028905944095212</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.1031455011482524</v>
+        <v>0.04880066163840423</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.003581644901936314</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1215663968192143</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0009060485651443816</v>
+        <v>0.06021737462860975</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.05237657180418397</v>
+        <v>-0.08820824989769356</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.005924262844371538</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
@@ -3092,25 +3092,25 @@
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.02357708045242461</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.02794682952345883</v>
+        <v>-0.02590639748499073</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01628528470610611</v>
+        <v>0.0007770277829044801</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.1032209663776558</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,52 +3119,52 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.0716187256284446</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.05133366890769803</v>
+        <v>0.05235752052365613</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.06619693321463557</v>
+        <v>0.1266724998161722</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.07086188751560421</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.09877701002690699</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.05491125149118447</v>
+        <v>0.1175599771863753</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.1082473477723275</v>
+        <v>-0.04896047076617056</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.07356780604717972</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
@@ -3173,210 +3173,210 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1267138335193436</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.04230194089154777</v>
+        <v>0.1191357298537764</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.02080201583610452</v>
+        <v>-0.0174030566357154</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.05163963206384832</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.01726461706723437</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.0319280297661128</v>
+        <v>-0.1172702197897648</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01512058011344915</v>
+        <v>0.06640714151146422</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01598857981748449</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.01492333328869602</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.02477528667168469</v>
+        <v>0.07901149324997689</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.05491757323835981</v>
+        <v>0.08762611159714583</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.09054589053648777</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.03097393586318152</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.00946243444899455</v>
+        <v>0.03547346831122084</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01006768525910123</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02369235221247045</v>
+        <v>0.0257102028636362</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1049608322918902</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02744739173677336</v>
+        <v>-0.01631089698574326</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.005825326201809028</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03560314057152759</v>
+        <v>0.01135146265438864</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07103095352052199</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01363792100338191</v>
+        <v>-0.02114392869031203</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.01325532400619299</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-6.275777293724566e-12</v>
+        <v>0.001978793661431636</v>
       </c>
       <c r="U6" t="n">
         <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02869186940185512</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.034333559559548</v>
+        <v>-0.001178707617057422</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>7.979162253134742e-12</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03473651972211349</v>
+        <v>0.01977711521638579</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06441671696809924</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01676076530734763</v>
+        <v>0.02841908659831824</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.006947550999596809</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.02038152378994043</v>
+        <v>0.002563515576590252</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.005007061707837416</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.007427380926814543</v>
+        <v>-0.01146136687115565</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.003923965098263952</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1465783042764788</v>
+        <v>0.06723364708735667</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02893930594772922</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.02790600133078612</v>
+        <v>-0.01844041501628038</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.006975432126675747</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.01134745446435196</v>
+        <v>0.0008330259646292059</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.07750964972978749</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01378367176388365</v>
+        <v>-0.02840832935321351</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.005269534695415441</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04023801516053271</v>
+        <v>0.02107016351478195</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03595618935284471</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.038635503406368</v>
+        <v>0.01125189901350152</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01277691835665003</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,163 +3496,163 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.007855979538971275</v>
+        <v>0.01275513627696651</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0319435997683843</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.005699035814819054</v>
+        <v>-0.007487002048033786</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01171612067636764</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0362771782727537</v>
+        <v>-0.004076767954999428</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.0375690631812892</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01486349548813489</v>
+        <v>-0.001031915820151512</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.007887274850342536</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.03124962305770686</v>
+        <v>-0.0061780981152115</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02709544878787841</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.07385721321008649</v>
+        <v>0.01230550606728938</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01158993949901335</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03898589087229875</v>
+        <v>0.001117822764774594</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03268384172442799</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.004302367742717724</v>
+        <v>0.001150195579340588</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.008442344110790536</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1016795014125192</v>
+        <v>-0.002327911661059367</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01727493846149546</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.0002794172373675002</v>
+        <v>0.0001458575486459664</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01039568552843931</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.003643454044203394</v>
+        <v>0.01384948741858294</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.002213633973184112</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.06986488237015279</v>
+        <v>0.007645098202772372</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.005652519685862566</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
@@ -3661,22 +3661,22 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01561663527487614</v>
+        <v>-0.001282463655515553</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04599612367391531</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.001122492443179157</v>
+        <v>-0.01213313245562467</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.004580350972201624</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,25 +3685,25 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03520214461066373</v>
+        <v>-0.004120359243036806</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.05172344327829523</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05058578002334504</v>
+        <v>0.002772532029017524</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.002142612396169072</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.008043780548922328</v>
+        <v>-0.005624876668633948</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.005536404542706943</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.02975075134674417</v>
+        <v>-0.01087108926825263</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.0318573131637177</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3736,85 +3736,85 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02879671200382502</v>
+        <v>-0.0005856417721823643</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02913177383456038</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01857106019294241</v>
+        <v>0.0003023743728457334</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.0101486786120487</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.04310059413025365</v>
+        <v>-0.006664579369627282</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.0282143922639234</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.0006962755217402592</v>
+        <v>-0.01266127225177882</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01741523423786408</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.003910379732116774</v>
+        <v>0.001542038741933672</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.06089912265865739</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.000457590016770888</v>
+        <v>-0.003288255960565998</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.003639070295710471</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02544358175996809</v>
+        <v>-0.02333357144253331</v>
       </c>
       <c r="GA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03814516522209865</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>0.008525917642626597</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,46 +3849,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1425758521273124</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.007778040788286523</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1448373743436163</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01718840649744265</v>
+        <v>-0.01642222477433604</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.01416264160115431</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.07217543021488694</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02478197209894154</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1052221621812824</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05893617549903223</v>
+        <v>-0.08140761853747085</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.03565179069302356</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02042816557589708</v>
       </c>
       <c r="U7" t="n">
-        <v>-2.912109776571566e-11</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.0267948126503514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.09212247360616983</v>
+        <v>-0.01067776606374346</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -3927,106 +3927,106 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.870562513111821e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.0675514011645849</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01028767744950322</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03687065237926045</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.01500602368987954</v>
+        <v>0.03217932533877796</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0.01810608454363851</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02856609004929428</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.0002332068675668292</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.06619890863254793</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01343293052213568</v>
+        <v>-0.01568379419574517</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01142702134487608</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2620464596347069</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.05578991442991266</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1552000173254122</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1155331564322492</v>
+        <v>0.1145672578162675</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-6.487477287347876e-05</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.03186888500253315</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.004206331157142445</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.1174745356842196</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.05362316746012788</v>
+        <v>-0.08490422381743236</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.0136000940209506</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.0117624453716153</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.06644819469635742</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03245056942283261</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1190825147942661</v>
+        <v>0.115378459720568</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,79 +4059,79 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>0.02074648876565678</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.0890410066066423</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.01134727568352541</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1015707534226212</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.08653213085544216</v>
+        <v>0.00459077054465182</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.00804535723886499</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.03830991537697483</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01234880797755212</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.07324128488495735</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02036904636399537</v>
+        <v>0.00163997842395958</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.03462356784951699</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01812534822284772</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.007114443738704925</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.1335358279427706</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0359725869519069</v>
+        <v>-0.02671269517477646</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.01132183203062177</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.03539397537621837</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0143185666977511</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.05841343988661393</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0153798566488909</v>
+        <v>0.01059575619256429</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4170,49 +4170,49 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03043971043178629</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.125602465218602</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0399927519605406</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.06093655146445796</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.04616482601910357</v>
+        <v>0.06258437826395105</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.01553885989894793</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.007317609403347359</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.009328049104078024</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.04096032399123019</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03206136942483705</v>
+        <v>-0.01196208093206382</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4224,25 +4224,25 @@
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.02147740742490288</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.002914855797095837</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.01189502299909282</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.05618401271400924</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.01083442558378848</v>
+        <v>-0.01340674432341204</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,76 +4251,76 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0.006202544352243082</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.002833445799892248</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01603511477813704</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.05063002922536042</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.02156750822537281</v>
+        <v>0.03910119678188298</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.04192697755548629</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.06328850813279002</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.01191988711991576</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.02659086085932205</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.002456662416050846</v>
+        <v>-0.002475103304978612</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.02445895006599259</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.04854247319294009</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.005748983332371796</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.0466026843834508</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02087447582585722</v>
+        <v>0.003198897902799316</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
@@ -4329,91 +4329,91 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01778218774023007</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.04547093157014513</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.0101352044585931</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.004214876385275131</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.01689862773148251</v>
+        <v>-0.01500106176636157</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.03946146153064908</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.06269204493629611</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.00406876823421098</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0.005127864759010232</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.00594292232322601</v>
+        <v>0.03025693639973523</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.001886429275876016</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.06592429231033312</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.003593675544221162</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.06000706912444402</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.02931609309721137</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.6431211278792899</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1030562882405396</v>
+        <v>-0.4313293722840897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03040531114138798</v>
+        <v>-0.1206474340548048</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1069545283117793</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.4578688963439858</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09738418302052948</v>
+        <v>-0.381793420969774</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01135644805698435</v>
+        <v>-0.1981203706287714</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1042271120317623</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,79 +5044,79 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.09150710220367089</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.008336119014035951</v>
+        <v>-0.05715946596669126</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.06812263620836936</v>
+        <v>-0.09868003486149382</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.0009293056936356951</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1681935323189132</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.07881531698948395</v>
+        <v>0.0106250115944826</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0160789107540784</v>
+        <v>0.0003864716863099593</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.03188916497842797</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.07026536668468006</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.03750824496448563</v>
+        <v>-0.0597407707843184</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.02327607782777056</v>
+        <v>-0.1000580726857865</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.003439447726961772</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -5125,25 +5125,25 @@
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.7835482324392984</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.01897396519244404</v>
+        <v>-0.1106725791340344</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.002241776529547654</v>
+        <v>0.1515875121286588</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1570704302329496</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -5152,124 +5152,124 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.05341234784022977</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.1048623080603667</v>
+        <v>-0.1182677712136532</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.005084096476796218</v>
+        <v>-0.309120183910336</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.035537010939023</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.1823945203413134</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01494219610573684</v>
+        <v>0.1526645231521875</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.001679982252113474</v>
+        <v>0.0830902544681268</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.06387811520397813</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.2465878286553984</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.04570949970448374</v>
+        <v>-0.009349643700699918</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.03818945840675425</v>
+        <v>-0.04739354642160499</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.009526474683931656</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.1576586170190533</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.02368951178306637</v>
+        <v>0.06566729316579115</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0261408954714149</v>
+        <v>-0.0252513896401321</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.02964855411331696</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.006073261237951448</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.04105268507055845</v>
+        <v>-0.2337531949761405</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.1217737661677462</v>
+        <v>-0.1002368787256342</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,52 +5278,52 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0084759857991641</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.1304976543949124</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.02247550803232738</v>
+        <v>0.1137662662961789</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01891302746279847</v>
+        <v>-0.01187967098386139</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.03242497621503942</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01898002585072258</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.007720094562515305</v>
+        <v>0.1501012219031088</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.06638186142379217</v>
+        <v>0.01942265638114435</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
@@ -5332,226 +5332,226 @@
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.04496924429437749</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.1160844213391419</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.003984393170383781</v>
+        <v>0.01888786672852248</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.003603953716198195</v>
+        <v>-0.06563521515844216</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0266659371213255</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03286604138922736</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.006680844944640804</v>
+        <v>0.001985623006469574</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.02923046156626078</v>
+        <v>0.04358913714040345</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.008694809708468667</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.06080151547822777</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.08845489889437817</v>
+        <v>0.07863172439046108</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.01118226583888635</v>
+        <v>0.07116307966878639</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.04008101013282976</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>-0.1273244291160636</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.02474285261542511</v>
+        <v>-0.1104753696934872</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.04152065724190501</v>
+        <v>-0.05243116096714195</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.04629271772260498</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.1283232778460422</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.02847283688456045</v>
+        <v>0.105753608244929</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02651848267068103</v>
+        <v>-0.009635664722847962</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.04275048077690886</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.03230813806503537</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.008541282359429341</v>
+        <v>0.1055620931539515</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.02033164681414239</v>
+        <v>0.09182587792767208</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.04706414943856916</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.0033800850925089</v>
       </c>
       <c r="FR9" t="n">
         <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.02528888625779329</v>
+        <v>-0.02471614550362831</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.15905322335126</v>
+        <v>0.1385347958161788</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.003177334229410044</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.002966421130452076</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.01809653715999141</v>
+        <v>-0.001855321300584287</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01105547285932417</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,79 +5559,79 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.32972392234272</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.509320255608544</v>
+        <v>-0.7253115098808439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1084158318096759</v>
+        <v>-0.3129879357920054</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.005525772218166396</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2293731578521948</v>
+        <v>0.00228571364418651</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.7712157281048302</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4131010378511289</v>
+        <v>-0.6581671744059918</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.08095261999154101</v>
+        <v>-0.4072736504975191</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.03730525006371209</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.3718314680114804</v>
+        <v>-0.003513763037697081</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.2145365634908275</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.06705552463013693</v>
+        <v>-0.1929646215312413</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.2205811668149529</v>
+        <v>-0.2341308824039504</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.082078003216483e-10</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0733322833937101</v>
+        <v>-1.624480054642752e-10</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -5640,52 +5640,52 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.1489508826470938</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2371586155800078</v>
+        <v>0.03121258094431089</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.09405996196783771</v>
+        <v>-0.1647510465725072</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.05196974501696525</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.08339835740262536</v>
+        <v>0.03701020327810803</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.09757844646694905</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.1098842549059309</v>
+        <v>-0.1201917940016866</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.08497694827519371</v>
+        <v>-0.1291603830718449</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.01998896500827257</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.00246122885168799</v>
+        <v>0.04983156622935905</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,25 +5694,25 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>1.381271556677032</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1591280198627769</v>
+        <v>-0.1939356441916547</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.2534487066569898</v>
+        <v>-0.01126653162298424</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.09507604665065812</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.2597009792969915</v>
+        <v>0.1216895453545809</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,52 +5721,52 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.1068175505790881</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.2985845609602752</v>
+        <v>-0.2427309238071892</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.1890000550378705</v>
+        <v>-0.6376069651064048</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.01161325708474589</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.01282056030199129</v>
+        <v>-0.01483523006021225</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.5334328602934325</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.03093772563772912</v>
+        <v>0.2519473708005882</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.06757483666777626</v>
+        <v>0.1688890663084654</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.03006677555740263</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.1186683963678625</v>
+        <v>-0.05316123553514107</v>
       </c>
       <c r="BT10" t="n">
         <v>0</v>
@@ -5775,25 +5775,25 @@
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.6110998506800056</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.187766772216526</v>
+        <v>-0.1057839355002814</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.05236190021084267</v>
+        <v>-0.1173855445863664</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.02016253464537997</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.1227734904295927</v>
+        <v>-0.05969296206887251</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
@@ -5802,133 +5802,133 @@
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.265501818194283</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.1328452872610446</v>
+        <v>0.09976465553277741</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.001639300789963574</v>
+        <v>-0.02528519302112164</v>
       </c>
       <c r="CI10" t="n">
-        <v>-9.845019615784757e-06</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.04373455134646475</v>
+        <v>-0.02245420825592017</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.002165402046744375</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.1054029930904624</v>
+        <v>-0.2341381001247244</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1792216304370578</v>
+        <v>0.01497643082837527</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.0749496085414897</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.06670616015158612</v>
+        <v>0.1561416660956107</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.1986169147417123</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.0937221771324754</v>
+        <v>0.1955292105233471</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.01088160793379531</v>
+        <v>-0.0507732800073922</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.04643826857043654</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01864710793046217</v>
+        <v>-0.03913252474899385</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.1954718066750553</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.102120371762696</v>
+        <v>0.1541363958731962</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.07265264108839853</v>
+        <v>0.04059971283400391</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.007777924894345122</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.0661354821371956</v>
+        <v>0.01656503588159994</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.1847507096774918</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.08247541425986295</v>
+        <v>-0.03598656592036514</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.1307652225629353</v>
+        <v>-0.03288512128811742</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.09545426725146652</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.05178695163837409</v>
+        <v>0.2417065766731149</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,25 +5937,25 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.01507511348795365</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0387154598775438</v>
+        <v>0.09368256042842521</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.04259082827371282</v>
+        <v>-0.1352580196438784</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.08521629341860734</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.08379407777066611</v>
+        <v>0.1403299807954401</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
@@ -5964,25 +5964,25 @@
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.07216874285948884</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.3484507028683845</v>
+        <v>0.08455802791436114</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.006548087562979578</v>
+        <v>0.08461306480260627</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.02369724785309076</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.001103211300143356</v>
+        <v>-0.006621787602303324</v>
       </c>
       <c r="EN10" t="n">
         <v>0</v>
@@ -5991,25 +5991,25 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.2028261327665833</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.09001181883006985</v>
+        <v>0.175034026957628</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.07277249834185595</v>
+        <v>-0.1542693974870238</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.182856341783034</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.02877258052116062</v>
+        <v>-0.2576976436960372</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,52 +6018,52 @@
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.2083260136239714</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.1069408753553442</v>
+        <v>0.1852738504344292</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01662497917598972</v>
+        <v>0.0005354941700137528</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.04442508365584216</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.05426413632471225</v>
+        <v>-0.04781426028751535</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.01621475212799994</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.05754541927289181</v>
+        <v>-0.1722993615914327</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.05737984364452158</v>
+        <v>-0.04362086074973329</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.006206346473834804</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.02389594262741912</v>
+        <v>0.06874354514005375</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.1120596383716825</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.03035244547057309</v>
+        <v>-0.06656314142965827</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.1171637724755676</v>
+        <v>-0.1487549002827697</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.1471223671837201</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.06871464995218461</v>
+        <v>-0.05626347322209992</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.07123360457273892</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.1270944927414307</v>
+        <v>-0.008665633860880571</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0.01181660966337097</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.04559313347120617</v>
+        <v>0.1596136483412624</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6125,22 +6125,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1610532343182555</v>
+        <v>0.2531052344834898</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2054564395610273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08049144469567042</v>
+        <v>-0.171700311824081</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.1520030622925944</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1184951919642844</v>
+        <v>0.155436893800019</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1548411298419544</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03666704777275549</v>
+        <v>-0.1544426518130244</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.1402295833959978</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
@@ -6176,52 +6176,52 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.01187356575361133</v>
+        <v>0.05510855204151186</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.04750876786631902</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.09519717696498751</v>
+        <v>-0.01257544067907107</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.04423046273684406</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.06181513845897073</v>
+        <v>0.04792191642624419</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.07188868861446007</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.06583563618214745</v>
+        <v>0.02003040025276645</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.02243760618355542</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02051035454666005</v>
+        <v>0.04541574035603577</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.009105705241483924</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.02334878710211495</v>
+        <v>-0.01796179739418388</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.027805323603865</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.1358845761192444</v>
+        <v>0.270890863811637</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04908749889221312</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.03689244940062662</v>
+        <v>-0.06320343788295431</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.08237082135467574</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.03704968803000434</v>
+        <v>0.05177670746334367</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1169056615634674</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.01042267311889598</v>
+        <v>-0.118500921561834</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.05646949748076138</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,79 +6311,79 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.06938765271068617</v>
+        <v>0.1256516755141852</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02834574337345224</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.005230222985588508</v>
+        <v>0.06097303499255846</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.03761318067508775</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.03182480180196963</v>
+        <v>0.1194637016101174</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.07242461264605336</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.03117929454434461</v>
+        <v>-0.04224056744130705</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.00983884346985831</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.04752897893999151</v>
+        <v>-0.0452937933470859</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.04541249391066238</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.009185732247369774</v>
+        <v>0.02309552015226768</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.03839290382316177</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6395,49 +6395,49 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01778709717314661</v>
+        <v>-0.04048440521590919</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.05015261026495058</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1318970686308732</v>
+        <v>-0.02282488160405196</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.02473721752656569</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.04839356953312733</v>
+        <v>-0.02495271402766586</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.03482449122303991</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.007749191485494487</v>
+        <v>0.02365294375802893</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.04463687436566663</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6449,22 +6449,22 @@
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05485046268798618</v>
+        <v>-0.05487563270868888</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02581296316677643</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.04231381887236751</v>
+        <v>0.01762215211216971</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>-0.007606837645583835</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6476,52 +6476,52 @@
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01912114911138363</v>
+        <v>-0.04202748649737501</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.006223271870917264</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.05067977746310387</v>
+        <v>0.01996535509419408</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.05221339617993781</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01800681857400096</v>
+        <v>-0.004730832782858783</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.04309274917810335</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02997219453600411</v>
+        <v>-0.04161962073768436</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>-0.02751181886413399</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6533,46 +6533,46 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.04533291431669018</v>
+        <v>-0.001618820238133541</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.07109933277358016</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02484512710392804</v>
+        <v>0.03183791452285867</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.02221569988462231</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.03245811350307101</v>
+        <v>0.02080368259153006</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.004790432511316037</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.02504495357756223</v>
+        <v>-0.0001245361314978224</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.05971674429206846</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6584,22 +6584,22 @@
         <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.04284516611474949</v>
+        <v>-0.02023849864355308</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.03728497611160528</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01686576410866294</v>
+        <v>0.01967794121582385</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.04642781488293706</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6608,28 +6608,28 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.05651573407552318</v>
+        <v>-0.04393791981133113</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.03028104853141119</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03488938436315275</v>
+        <v>-0.03475316388412928</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.02759811416529219</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,52 +6638,52 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01331756678464047</v>
+        <v>0.01804375227841967</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05991883651893126</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.06765402443736403</v>
+        <v>-0.01956113521699311</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.0208983999916433</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.03384712414539973</v>
+        <v>-0.04975106430747918</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03806382074804666</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.04159426179521222</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,46 +6694,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.7967449118122431</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5493304912071081</v>
+        <v>0.8057537279713651</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0153976038138592</v>
+        <v>0.005934379276951401</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.683989706374334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>-0.5095018179350282</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.4331355952260292</v>
+        <v>0.6815114602227121</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2545514829895503</v>
+        <v>0.1366627462824747</v>
       </c>
       <c r="O12" t="n">
         <v>-0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7964506929705283</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>-0</v>
@@ -6751,79 +6751,79 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>-0.1262038779963989</v>
       </c>
       <c r="U12" t="n">
         <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.03254039041439637</v>
+        <v>0.1948144349815881</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4853524066639784</v>
+        <v>0.1167459667884427</v>
       </c>
       <c r="X12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3603832343794269</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>-0.1109976143797824</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.1880264218547413</v>
+        <v>0.03918624553318874</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02295585516636833</v>
+        <v>0.06503674215739473</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.2247576937921273</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
         <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.1280211381444689</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.1053562333962062</v>
+        <v>0.07867910389339995</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.1730456871633432</v>
+        <v>0.07288725773115885</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.08805400310373351</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>-0</v>
@@ -6832,25 +6832,25 @@
         <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0.7624768882689485</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.311875925150049</v>
+        <v>0.2802745201852816</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.03762745100535827</v>
+        <v>-0.1329287817796658</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
         <v>-0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.4825657844490681</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
         <v>-0</v>
@@ -6859,43 +6859,43 @@
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>-0.1064153556772229</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.2856442374604251</v>
+        <v>0.249317217542316</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01077498490837247</v>
+        <v>0.3468755524165407</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.1321240336982896</v>
+        <v>-0</v>
       </c>
       <c r="BK12" t="n">
         <v>-0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>-0.1790225247519306</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.0110324950885719</v>
+        <v>-0.08884960967665947</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.03564736508074283</v>
+        <v>-0.1045313137499673</v>
       </c>
       <c r="BQ12" t="n">
         <v>0</v>
@@ -6904,25 +6904,25 @@
         <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.1758544287950129</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0.3829708514424254</v>
       </c>
       <c r="BW12" t="n">
         <v>-0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.1982159368820414</v>
+        <v>0.1775198505512709</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.00648002651693953</v>
+        <v>-0.04653954450284208</v>
       </c>
       <c r="BZ12" t="n">
         <v>0</v>
@@ -6931,169 +6931,169 @@
         <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.3926867385079422</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>0.1640262335081882</v>
       </c>
       <c r="CF12" t="n">
         <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.1519281503362787</v>
+        <v>-0.1362386607787078</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.06923474555144864</v>
+        <v>0.05783726153417158</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0.1706052307220915</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>0.006873028070179532</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.1610469999817455</v>
+        <v>0.08205066323844817</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.2730493210214062</v>
+        <v>-0.00541895454056689</v>
       </c>
       <c r="CR12" t="n">
         <v>-0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0.057298321126261</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>0.1382822444232858</v>
       </c>
       <c r="CX12" t="n">
         <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.1457171219042703</v>
+        <v>-0.1666286284902946</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.08659570825181641</v>
+        <v>0.0348153770410175</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0.1854519657582064</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>0.1021207897361165</v>
       </c>
       <c r="DG12" t="n">
         <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.0002961322577839716</v>
+        <v>-0.07880376856961248</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.1685732681520958</v>
+        <v>-0.04176812198416537</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.003358016222428603</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>0.07450093442387373</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0.07386965327819309</v>
+        <v>-0.1211935146757545</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.1355940090826103</v>
+        <v>0.07387252208647004</v>
       </c>
       <c r="DS12" t="n">
         <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.08964991559587433</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0</v>
+        <v>0.02823449223176254</v>
       </c>
       <c r="DY12" t="n">
         <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0.1073319890578044</v>
+        <v>0.02239331532336341</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.1064118404578309</v>
+        <v>0.0406386876655695</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.08967296470827592</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>0</v>
@@ -7102,97 +7102,97 @@
         <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>0.05663124287962364</v>
       </c>
       <c r="EH12" t="n">
         <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.3486915442596296</v>
+        <v>-0.09718101897280963</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.09263891568503058</v>
+        <v>-0.01102247135989644</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
         <v>0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0.2436940328211498</v>
+        <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
         <v>-0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>0.1543373242045958</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.06918048903563191</v>
+        <v>-0.1331104894315151</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.08811354408339424</v>
+        <v>0.01222167307833799</v>
       </c>
       <c r="ET12" t="n">
         <v>0</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.01772324468968461</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>0.1418110874109344</v>
       </c>
       <c r="EZ12" t="n">
         <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.136670965320349</v>
+        <v>-0.1751933609789787</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.09254000796401976</v>
+        <v>0.05022604037131924</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>-0.1809202922370231</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.07960698621116143</v>
       </c>
       <c r="FI12" t="n">
         <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.02469941641382277</v>
+        <v>-0.08343799627899244</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.0300816202577769</v>
+        <v>0.01480947874366184</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
@@ -7201,34 +7201,34 @@
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0.1546431383938238</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.004433925776476177</v>
       </c>
       <c r="FR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.1454608449440415</v>
+        <v>-0.02299475947632499</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.06694330353672652</v>
+        <v>0.04319617566725633</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
         <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0.2185380585563363</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
         <v>-0</v>
@@ -7237,25 +7237,25 @@
         <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.04748979513186578</v>
       </c>
       <c r="GA12" t="n">
         <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0.1318016145707135</v>
+        <v>0.08214821769065327</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE12" t="n">
         <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.03611732697646141</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
         <v>0</v>
@@ -7263,82 +7263,82 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.9451174272692732</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.2572652820404893</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1437134037133708</v>
+        <v>-0.3151438300588009</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3741288234591493</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6552202398610413</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.6950362954938313</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-0.2800130087693646</v>
       </c>
       <c r="N13" t="n">
-        <v>0.288499693880587</v>
+        <v>-0.2669885845180019</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3279430171894425</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7202662996598281</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.1831846528261059</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0</v>
+        <v>-0.003260754452485493</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2734721670733991</v>
+        <v>-0.003289080147553144</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.01240720158911532</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2430872357537124</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -7347,79 +7347,79 @@
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.1422157197686507</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.02151730472493776</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.100373606203748</v>
+        <v>-0.02775570412902272</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.01396385431733439</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.04813818456329851</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.1100564913764039</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0</v>
+        <v>-0.04807426753043535</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.2625333218465649</v>
+        <v>-0.07883617338166696</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0.004966576002340836</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.08325100126399231</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.6518847819989181</v>
       </c>
       <c r="AV13" t="n">
         <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>-0.04506457471535027</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1058364196090879</v>
+        <v>0.04993966539518773</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.2540180448821494</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.3550381262621987</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>-0</v>
@@ -7428,52 +7428,52 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1007780117111859</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>-0.09697981135433674</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1691541499861622</v>
+        <v>-0.2691806934956973</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.07806700355584055</v>
+        <v>-0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.1822378126608134</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.0813420502406281</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0</v>
+        <v>0.07532973041887342</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.0320990023485475</v>
+        <v>0.1104028277465864</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.04716090562800392</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0.05712208339692019</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
         <v>-0</v>
@@ -7482,25 +7482,25 @@
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.3369490783007907</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>-0.02508159421285891</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.05877531058994977</v>
+        <v>-0.01051386106330173</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0.1540672394745272</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.2072889997003692</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
@@ -7509,160 +7509,160 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.1881827792006017</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0</v>
+        <v>0.04568855665397138</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.06649421568813596</v>
+        <v>-0.002288774611234023</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.07579209979557157</v>
+        <v>-0</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0.1319825588265416</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>0.01755117672920241</v>
       </c>
       <c r="CO13" t="n">
         <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>-0.09490828070715744</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1415564559213973</v>
+        <v>-0.288458661634321</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0.1354839818328943</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.05301043270640185</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.1849755274160175</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0</v>
+        <v>0.07757815200174005</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.04845606505392284</v>
+        <v>-0.02111804651899409</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.08901403514169344</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0.17083781503468</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0</v>
+        <v>-0.07119981377325556</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0</v>
+        <v>0.09395591943751734</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.04496003278711208</v>
+        <v>0.037864369704566</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.06050719390730999</v>
+        <v>0</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.005762695353995456</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>-0.05882455942847015</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>-0.1162761609530741</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.01072324081644684</v>
+        <v>-0.05337417557107234</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0.0530729725184972</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.07827510756593212</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>0.1171037902181459</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0</v>
+        <v>-0.05940764421850397</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.07313843154924683</v>
+        <v>-0.06266414248268212</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0204607880303291</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.003799520539396504</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
         <v>0</v>
@@ -7671,52 +7671,52 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.1623145001257265</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0.09209443947967917</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.003616777408190477</v>
+        <v>0.07017359037880454</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.1627125158421882</v>
+        <v>-0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>-0.05734191123663674</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.1081964167594066</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0</v>
+        <v>0.03501042995427304</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.143679463025259</v>
+        <v>0.005219552253730816</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.01801116301553307</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0.1652060542236483</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
         <v>-0</v>
@@ -7725,106 +7725,106 @@
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0</v>
+        <v>-0.1795716757301236</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0</v>
+        <v>0.07158346857177986</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.08278367887509146</v>
+        <v>-0.02215127922348138</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.08534482303450434</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0.1834376650073855</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.04685468199745125</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0</v>
+        <v>0.1296781171896836</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.07469383688390056</v>
+        <v>-0.07322536525352627</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.06198037930038414</v>
+        <v>-0</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0.07135768313308662</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0.09428217928537512</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0</v>
+        <v>-0.005338968065022065</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.08013646071882137</v>
+        <v>-0.03672896769588967</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0.004981764678297641</v>
+        <v>-0</v>
       </c>
       <c r="FV13" t="n">
         <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.1999282039986614</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.009206108814724414</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0.05624098082049815</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0.03655210681371728</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.01197143403332055</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
         <v>-0</v>
@@ -7832,55 +7832,55 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>-0.9627810858716969</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5017211687633099</v>
+        <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003403820064734208</v>
+        <v>0.5580713317651814</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.298183167867996</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.251909746733687</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-1.065577023464297</v>
       </c>
       <c r="L14" t="n">
         <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3830610519324368</v>
+        <v>-0</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1218153944853637</v>
+        <v>0.2306222070952266</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.022970653929317</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.4200325126655339</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -7889,25 +7889,25 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0.1313222433411778</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.01816909464242798</v>
+        <v>-0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1777023310119771</v>
+        <v>0.1165816659835937</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.08367694090214239</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.1253441895101746</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>-0</v>
@@ -7916,106 +7916,106 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>-0.2515242342061572</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1350287455367256</v>
+        <v>-0</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.03720362834704787</v>
+        <v>0.01665510242003584</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0.1659589408580795</v>
       </c>
       <c r="AH14" t="n">
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.02749037016640278</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>-0.2441292892456852</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.09721003084457396</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0878782672407772</v>
+        <v>-0.06320441540668546</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0.2340998838323554</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.05091753038524372</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>-0.7946637456438979</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.167973594977766</v>
+        <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.05775990354944304</v>
+        <v>0.4306956920134923</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0</v>
+        <v>0.8834035981960774</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.2890086346073925</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0.2171745553458702</v>
       </c>
       <c r="BE14" t="n">
         <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.2160419206917679</v>
+        <v>-0</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.01901776191304313</v>
+        <v>0.3863426418846669</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0.2168382356882357</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.02748750495987867</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -8024,25 +8024,25 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>-0.06296567691961599</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.01850488107608435</v>
+        <v>-0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.002307536439224711</v>
+        <v>0.07873084786801655</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0.06761981494951227</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.1153085795192988</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8051,160 +8051,160 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0.4964234448227871</v>
       </c>
       <c r="BW14" t="n">
         <v>-0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1645504216843257</v>
+        <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.0002943861641183539</v>
+        <v>0.1354722237437793</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>0.4020563904837512</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.1941466928812477</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0.2627801695989425</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.1065973676656439</v>
+        <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.03965559902478676</v>
+        <v>-0.075095156636362</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>-0.2601940686459377</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.07839794196871465</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0.1081172129949199</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.04664174933272355</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1918072911305823</v>
+        <v>-0.2624348470135766</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>0.03665566968400303</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.07406230388320126</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
         <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>0.2190471015971596</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.09936570735293071</v>
+        <v>-0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.05152431316317838</v>
+        <v>-0.06412452056992456</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0</v>
+        <v>-0.2876843701156171</v>
       </c>
       <c r="DB14" t="n">
         <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0773041141088216</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>-0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.1582406885783395</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>-0.03776127603637058</v>
+        <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.08039556493234939</v>
+        <v>-0.1349932725530059</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0</v>
+        <v>-0.06148743941833405</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.01301583288109067</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>0.02903574685996979</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.09568424221328188</v>
+        <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.002668489076410879</v>
+        <v>0.03492213034347456</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>-0.2090554416885022</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0.005819497677310263</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>0</v>
@@ -8213,190 +8213,190 @@
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>-0.1034023934243307</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0.05592013541068999</v>
+        <v>-0</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.06699343320361545</v>
+        <v>0.153364322670606</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>-0.08923112873353908</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>-0.03157985169865472</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
         <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>0.228544352597338</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.2099475445679025</v>
+        <v>-0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.1068278088290076</v>
+        <v>-0.1643459861479985</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>-0.198754582309558</v>
       </c>
       <c r="EL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.1014270333238246</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>0.2066488841493347</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.1174595423693621</v>
+        <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.1269166805232799</v>
+        <v>-0.06261683204164721</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>0.04060706664041137</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.05252395840129904</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0.2463037825251546</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.09529315433313365</v>
+        <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.04340690567437785</v>
+        <v>-0.07960400970659036</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0.2838912445986057</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.09220601062277857</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>0.09119283903488529</v>
       </c>
       <c r="FI14" t="n">
         <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.06202847410902995</v>
+        <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.04885344348579354</v>
+        <v>0.02139559330771896</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0.1842970475420644</v>
       </c>
       <c r="FM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.06888443482129901</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>0.08947185146314408</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.09358903261359676</v>
+        <v>0</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.07616818522672779</v>
+        <v>-0.4729365362906646</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0.2598126526732241</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.07265558322559722</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.105574876402189</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.04802242976025159</v>
+        <v>-0</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>0.1466112530903053</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0.003509216519040378</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,52 +8404,52 @@
         <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266972415374072</v>
+        <v>-0.07074334259496176</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02620559890373702</v>
+        <v>-0.08971421453755714</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1016624513709401</v>
+        <v>0.01654249920726381</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.5955594831927888</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0227279432575585</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2680863442313704</v>
+        <v>-0.09404922667153187</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002529499259192701</v>
+        <v>-0.04980512802234512</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.08524767856802819</v>
+        <v>-0.0339316794886177</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.5036954182231775</v>
       </c>
       <c r="P15" t="n">
         <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05086163553956254</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -8458,25 +8458,25 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.0339511566450533</v>
+        <v>0.06271430173925228</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0410659292547214</v>
+        <v>-0.001000808147758416</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.003465872892295688</v>
+        <v>0.07174015949698569</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.08852290216324252</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.02658799438310146</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>-0</v>
@@ -8485,25 +8485,25 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.07682654321047494</v>
+        <v>-0.01617958423654121</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.002453860437514069</v>
+        <v>-0.02547041340748316</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.0003564315425919545</v>
+        <v>0.01040265496598124</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0.01264418799684098</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.001217207746955244</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -8512,106 +8512,106 @@
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.08307434453858728</v>
+        <v>-0.01409712147893026</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.01177451752438128</v>
+        <v>-0.0176389975634821</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01099864618738509</v>
+        <v>-0.06801958936341691</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.06955850258677465</v>
       </c>
       <c r="AQ15" t="n">
         <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.005746708808660775</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.1676540142346698</v>
+        <v>-0.04279225477872495</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.01121717977716571</v>
+        <v>-0.0482995509433963</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.01967053348873157</v>
+        <v>0.06085643237306608</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>0.3357308414468869</v>
       </c>
       <c r="AZ15" t="n">
         <v>-0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.05260770705803635</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
         <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.04164793804478369</v>
+        <v>-0.06828890131449063</v>
       </c>
       <c r="BE15" t="n">
         <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.0006538012178967584</v>
+        <v>-0.007021631823526012</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.01702324399211275</v>
+        <v>0.05031055869257414</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0.1117448029749454</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.0298907888420103</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.004509830106796938</v>
+        <v>-0.06942826150253639</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.03986622456883217</v>
+        <v>0.03432186029992509</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.07552400153329926</v>
+        <v>0.02240313905513296</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>-0.0153373549258293</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.02107065086338977</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>-0</v>
@@ -8620,52 +8620,52 @@
         <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.07499863584706179</v>
+        <v>-0.04132250613098955</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.02731194456525065</v>
+        <v>0.0003891990218119908</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.02656012759418407</v>
+        <v>0.06067319776227491</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>0.1631882168598484</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0.02220535936857573</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0.06312187453658083</v>
+        <v>0.02129370980251248</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.01141471084311066</v>
+        <v>0.02267553241342252</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.03222729126176841</v>
+        <v>-0.01012819026342317</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>-0.1097726674130544</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.008501930576385344</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
         <v>-0</v>
@@ -8674,106 +8674,106 @@
         <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0.01975887337549828</v>
+        <v>0.009703316372177669</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.008652112342317893</v>
+        <v>-0.04772598009023676</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.04930983392313312</v>
+        <v>-0.1383204951938403</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>-0.01210677848109141</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.01190803055897729</v>
+        <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
         <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0.05532527476204485</v>
+        <v>0.001548145123435707</v>
       </c>
       <c r="CX15" t="n">
         <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.00303302704099437</v>
+        <v>0.02112716020515926</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.02410092085075348</v>
+        <v>-0.004582810336981142</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>-0.1133853001807561</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.00889204454176263</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0.01730113936889255</v>
+        <v>0.01870925856406306</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.00367505936330333</v>
+        <v>-0.007569673156716238</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01820994890498132</v>
+        <v>0.003369237928202792</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>-0.02934005261928483</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0.01367448618169295</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
         <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0.02368976206776246</v>
+        <v>0.005149692329251689</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.008811743496221365</v>
+        <v>-0.02497424270509109</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.005103266961394145</v>
+        <v>-0.02604216946854496</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>-0.03403144666180317</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.02692331345035441</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
         <v>0</v>
@@ -8782,25 +8782,25 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.03598648219813217</v>
+        <v>-0.01783888510335784</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.01779881832995473</v>
+        <v>0.02196596551527411</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.006015676619165001</v>
+        <v>0.0452379860761315</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>0.1060290266870397</v>
       </c>
       <c r="EC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.004096873580611127</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
@@ -8809,52 +8809,52 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0.06680910653248452</v>
+        <v>-0.002828789881671709</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.02007310935669047</v>
+        <v>0.0566006568685551</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.06225547683588403</v>
+        <v>-0.01988714889233464</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>-0.08553709683882772</v>
       </c>
       <c r="EL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.01403018746489977</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0.01200365002604611</v>
+        <v>0.0140533740219218</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.03674531430951275</v>
+        <v>0.0449850795844433</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.005168467908626099</v>
+        <v>-0.003823480800546013</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0.009163977628648769</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.01169338384651606</v>
+        <v>-0</v>
       </c>
       <c r="EW15" t="n">
         <v>0</v>
@@ -8863,79 +8863,79 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0.0556634794071921</v>
+        <v>0.002547673883844654</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0.00779466118704591</v>
+        <v>0.02859490600419027</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.02869173461503707</v>
+        <v>-0.03243960713292136</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>-0.09999237689853438</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.01329547405285346</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0.01770328479495728</v>
+        <v>0.04852375545561106</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.009380771002403131</v>
+        <v>0.02712319372163526</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0005858787037656128</v>
+        <v>-0.06484732691083286</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>-0.05640769607458877</v>
       </c>
       <c r="FM15" t="n">
         <v>-0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.02004601252895368</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0.00243180359378817</v>
+        <v>0.003984762870481025</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.0445717595914103</v>
+        <v>-0.01011276608073908</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.004147079861815233</v>
+        <v>-0.1563284591216802</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>-0.03099230101908524</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0.006889609890346198</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
         <v>-0</v>
@@ -8944,28 +8944,28 @@
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0.01165671991056375</v>
+        <v>0.007639415378545235</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0.04276774522955777</v>
+        <v>0.03736327115060633</v>
       </c>
       <c r="GC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>0.05240565062675632</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.007912693713942815</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
